--- a/medicine/Enfance/Lullaby_(nouvelle)/Lullaby_(nouvelle).xlsx
+++ b/medicine/Enfance/Lullaby_(nouvelle)/Lullaby_(nouvelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lullaby est une nouvelle de J. M. G. Le Clézio.
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lullaby est une jeune fille fascinée par la mer et qui adore la nature. Elle choisit un jour de ne plus aller au lycée, de partir se promener et de découvrir le monde qui l'entoure. Dans sa fugue, se liant d'amitié avec un jeune garçon, elle va aller de découvertes en découvertes. Pourtant, un jour, il faudra revenir au lycée. Qui voudra croire à son étrange voyage ?  
  Portail de la littérature d’enfance et de jeunesse   Portail de la littérature française                    </t>
